--- a/RPA/Reportes/Reporte_2026-02-06.xlsx
+++ b/RPA/Reportes/Reporte_2026-02-06.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="136">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Your perfect pack for everyday use and walks in the forest. Stash your laptop (up to 15 inches) in the padded sleeve, your everyday</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:22</t>
+    <t xml:space="preserve">6/2/2026 19:26:13</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">great outerwear jackets for Spring/Autumn/Winter, suitable for many occasions, such as working, hiking, camping, mountain/rock climbing, cycling, traveling or other outdoors. Good gift choice for you or your family member. A warm hearted love to Father, husband or son in this thanksgiving or Christmas Day.</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:14</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
     <t xml:space="preserve">The color could be slightly different between on the screen and in practice. / Please note that body builds vary by person, therefore, detailed size information should be reviewed below on the product description.</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">From our Legends Collection, the Naga was inspired by the mythical water dragon that protects the ocean's pearl. Wear facing inward to be bestowed with love and abundance, or outward for protection.</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:25</t>
+    <t xml:space="preserve">6/2/2026 19:26:15</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">Satisfaction Guaranteed. Return or exchange any order within 30 days.Designed and sold by Hafeez Center in the United States. Satisfaction Guaranteed. Return or exchange any order within 30 days.</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -135,7 +132,7 @@
     <t xml:space="preserve">Classic Created Wedding Engagement Solitaire Diamond Promise Ring for Her. Gifts to spoil your love more for Engagement, Wedding, Anniversary, Valentine's Day...</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:28</t>
+    <t xml:space="preserve">6/2/2026 19:26:16</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -150,9 +147,6 @@
     <t xml:space="preserve">Rose Gold Plated Double Flared Tunnel Plug Earrings. Made of 316L Stainless Steel</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
@@ -180,6 +174,9 @@
     <t xml:space="preserve">Easy upgrade for faster boot up, shutdown, application load and response (As compared to 5400 RPM SATA 2.5” hard drive; Based on published specifications and internal benchmarking tests using PCMark vantage scores) Boosts burst write performance, making it ideal for typical PC workloads The perfect balance of performance and reliability Read/write speeds of up to 535MB/s/450MB/s (Based on internal testing; Performance may vary depending upon drive capacity, host device, OS and application.)</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:17</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -201,7 +198,7 @@
     <t xml:space="preserve">Expand your PS4 gaming experience, Play anywhere Fast and easy, setup Sleek design with high capacity, 3-year manufacturer's limited warranty</t>
   </si>
   <si>
-    <t xml:space="preserve">6/2/2026 18:43:30</t>
+    <t xml:space="preserve">6/2/2026 19:26:18</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -216,6 +213,9 @@
     <t xml:space="preserve">21. 5 inches Full HD (1920 x 1080) widescreen IPS display And Radeon free Sync technology. No compatibility for VESA Mount Refresh Rate: 75Hz - Using HDMI port Zero-frame design | ultra-thin | 4ms response time | IPS panel Aspect ratio - 16: 9. Color Supported - 16. 7 million colors. Brightness - 250 nit Tilt angle -5 degree to 15 degree. Horizontal viewing angle-178 degree. Vertical viewing angle-178 degree 75 hertz</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:19</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -228,6 +228,9 @@
     <t xml:space="preserve">49 INCH SUPER ULTRAWIDE 32:9 CURVED GAMING MONITOR with dual 27 inch screen side by side QUANTUM DOT (QLED) TECHNOLOGY, HDR support and factory calibration provides stunningly realistic and accurate color and contrast 144HZ HIGH REFRESH RATE and 1ms ultra fast response time work to eliminate motion blur, ghosting, and reduce input lag</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:20</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
     <t xml:space="preserve">100% POLYURETHANE(shell) 100% POLYESTER(lining) 75% POLYESTER 25% COTTON (SWEATER), Faux leather material for style and comfort / 2 pockets of front, 2-For-One Hooded denim style faux leather jacket, Button detail on waist / Detail stitching at sides, HAND WASH ONLY / DO NOT BLEACH / LINE DRY / DO NOT IRON</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:21</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
@@ -267,6 +273,9 @@
     <t xml:space="preserve">Lightweight perfet for trip or casual wear---Long sleeve with hooded, adjustable drawstring waist design. Button and zipper front closure raincoat, fully stripes Lined and The Raincoat has 2 side pockets are a good size to hold all kinds of things, it covers the hips, and the hood is generous but doesn't overdo it.Attached Cotton Lined Hood with Adjustable Drawstrings give it a real styled look.</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:22</t>
+  </si>
+  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
@@ -279,6 +288,9 @@
     <t xml:space="preserve">95% RAYON 5% SPANDEX, Made in USA or Imported, Do Not Bleach, Lightweight fabric with great stretch for comfort, Ribbed on sleeves and neckline / Double stitching on bottom hem</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:23</t>
+  </si>
+  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
@@ -303,6 +315,9 @@
     <t xml:space="preserve">95%Cotton,5%Spandex, Features: Casual, Short Sleeve, Letter Print,V-Neck,Fashion Tees, The fabric is soft and has some stretch., Occasion: Casual/Office/Beach/School/Home/Street. Season: Spring,Summer,Autumn,Winter.</t>
   </si>
   <si>
+    <t xml:space="preserve">6/2/2026 19:26:24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total_Productos</t>
   </si>
   <si>
@@ -328,6 +343,84 @@
   </si>
   <si>
     <t xml:space="preserve">26.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:32:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:35:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:39:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:39:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/2/2026 19:39:58</t>
   </si>
 </sst>
 </file>
@@ -416,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G2"/>
     </row>
@@ -437,7 +530,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G3"/>
     </row>
@@ -458,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="G5"/>
     </row>
@@ -500,7 +593,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="G6"/>
     </row>
@@ -521,154 +614,154 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G14"/>
     </row>
@@ -683,139 +776,139 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G21"/>
     </row>
@@ -834,37 +927,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F2"/>
     </row>
@@ -873,10 +966,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F3"/>
     </row>
@@ -885,22 +978,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F5"/>
     </row>
